--- a/doc/Rules.xlsx
+++ b/doc/Rules.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8970"/>
   </bookViews>
   <sheets>
     <sheet name="FlatMapRule" sheetId="2" r:id="rId1"/>
@@ -114,21 +114,12 @@
     <t>attr name</t>
   </si>
   <si>
-    <t>select value</t>
-  </si>
-  <si>
     <t>message</t>
   </si>
   <si>
     <t>[node]</t>
   </si>
   <si>
-    <t>AppendValueof</t>
-  </si>
-  <si>
-    <t>RemoveElementText</t>
-  </si>
-  <si>
     <t>SetAttributeValue</t>
   </si>
   <si>
@@ -136,6 +127,15 @@
   </si>
   <si>
     <t>Rule Model</t>
+  </si>
+  <si>
+    <t>replaceWithValueof</t>
+  </si>
+  <si>
+    <t>sourceElmNode</t>
+  </si>
+  <si>
+    <t>getNodeXslType</t>
   </si>
 </sst>
 </file>
@@ -694,21 +694,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.21875" style="4" customWidth="1"/>
-    <col min="2" max="3" width="19.6640625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="27.109375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="29.33203125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="4" customWidth="1"/>
-    <col min="7" max="16384" width="8.88671875" style="4"/>
+    <col min="1" max="1" width="24.28515625" style="4" customWidth="1"/>
+    <col min="2" max="3" width="19.7109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="27.140625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="29.28515625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" style="4" customWidth="1"/>
+    <col min="7" max="16384" width="8.85546875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -719,7 +719,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
@@ -736,7 +736,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
@@ -750,7 +750,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
@@ -764,7 +764,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
@@ -778,7 +778,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
@@ -792,7 +792,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
@@ -806,7 +806,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>5</v>
       </c>
@@ -820,7 +820,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>5</v>
       </c>
@@ -834,7 +834,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>5</v>
       </c>
@@ -848,7 +848,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>5</v>
       </c>
@@ -862,7 +862,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>5</v>
       </c>
@@ -876,7 +876,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>13</v>
       </c>
@@ -884,7 +884,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
         <v>13</v>
       </c>
@@ -892,7 +892,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>14</v>
       </c>
@@ -900,7 +900,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>17</v>
       </c>
@@ -908,7 +908,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>22</v>
       </c>
@@ -917,7 +917,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
         <v>22</v>
       </c>
@@ -925,16 +925,16 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
       <c r="D24" s="12"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
         <v>23</v>
       </c>
@@ -944,7 +944,7 @@
       <c r="C25" s="15"/>
       <c r="D25" s="16"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
         <v>24</v>
       </c>
@@ -954,64 +954,64 @@
       <c r="C26" s="15"/>
       <c r="D26" s="16"/>
     </row>
-    <row r="27" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
         <v>25</v>
       </c>
       <c r="B27" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="C27" s="14" t="s">
-        <v>33</v>
-      </c>
       <c r="D27" s="16"/>
     </row>
-    <row r="28" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="17" t="s">
         <v>26</v>
       </c>
       <c r="B28" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="18" t="s">
-        <v>33</v>
-      </c>
       <c r="D28" s="19"/>
     </row>
-    <row r="29" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
       <c r="D30" s="12"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B31" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="15"/>
+      <c r="C31" s="14" t="s">
+        <v>37</v>
+      </c>
       <c r="D31" s="16"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C32" s="14" t="s">
-        <v>31</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="C32" s="14"/>
       <c r="D32" s="16"/>
     </row>
-    <row r="33" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="17" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B33" s="18" t="s">
         <v>29</v>

--- a/doc/Rules.xlsx
+++ b/doc/Rules.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8970"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6810"/>
   </bookViews>
   <sheets>
     <sheet name="FlatMapRule" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="43">
   <si>
     <t>Source node type</t>
   </si>
@@ -75,21 +75,12 @@
     <t>attr value</t>
   </si>
   <si>
-    <t>target is not an select or test attribute</t>
-  </si>
-  <si>
     <t>source = source.parent</t>
   </si>
   <si>
-    <t>target = target.parent</t>
-  </si>
-  <si>
     <t>not supported: map to a leaf element</t>
   </si>
   <si>
-    <t>other</t>
-  </si>
-  <si>
     <t>SourceNode</t>
   </si>
   <si>
@@ -136,17 +127,45 @@
   </si>
   <si>
     <t>getNodeXslType</t>
+  </si>
+  <si>
+    <t>Leaf</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>target = target.parentAttribute</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>target = target.parentElm</t>
+  </si>
+  <si>
+    <t>otherwise</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -190,7 +209,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -212,6 +231,12 @@
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -317,18 +342,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -337,34 +363,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -373,20 +399,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
+    <cellStyle name="20% - Accent3" xfId="4" builtinId="38"/>
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
@@ -692,23 +725,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.28515625" style="4" customWidth="1"/>
-    <col min="2" max="3" width="19.7109375" style="4" customWidth="1"/>
-    <col min="4" max="4" width="27.140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="29.28515625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" style="4" customWidth="1"/>
-    <col min="7" max="16384" width="8.85546875" style="4"/>
+    <col min="2" max="4" width="19.7109375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="27.140625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="29.28515625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" style="4" customWidth="1"/>
+    <col min="8" max="16384" width="8.85546875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -718,67 +751,82 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="5" t="s">
+      <c r="D1" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="5" t="s">
+    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="5" t="s">
+      <c r="D3" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="5" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
@@ -788,11 +836,14 @@
       <c r="C6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
@@ -802,11 +853,14 @@
       <c r="C7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>5</v>
       </c>
@@ -816,11 +870,14 @@
       <c r="C8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>5</v>
       </c>
@@ -828,199 +885,189 @@
         <v>17</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="9" t="s">
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="21"/>
+      <c r="B15" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="12"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="13" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+      <c r="B22" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="16"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="16"/>
+    </row>
+    <row r="24" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="D17" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="10" t="s">
+      <c r="B24" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" s="14"/>
+      <c r="E24" s="16"/>
+    </row>
+    <row r="25" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" s="18"/>
+      <c r="E25" s="19"/>
+    </row>
+    <row r="26" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="12"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D28" s="14"/>
+      <c r="E28" s="16"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="12"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" s="14" t="s">
+      <c r="B29" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="16"/>
+    </row>
+    <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B30" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="15"/>
-      <c r="D25" s="16"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C26" s="15"/>
-      <c r="D26" s="16"/>
-    </row>
-    <row r="27" spans="1:4" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="13" t="s">
+      <c r="D30" s="18"/>
+      <c r="E30" s="20" t="s">
         <v>25</v>
-      </c>
-      <c r="B27" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C27" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="D27" s="16"/>
-    </row>
-    <row r="28" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B28" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="C28" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="D28" s="19"/>
-    </row>
-    <row r="29" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="12"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C31" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="D31" s="16"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B32" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C32" s="14"/>
-      <c r="D32" s="16"/>
-    </row>
-    <row r="33" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="C33" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="D33" s="20" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/doc/Rules.xlsx
+++ b/doc/Rules.xlsx
@@ -9,17 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6810"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6816" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="FlatMapRule" sheetId="2" r:id="rId1"/>
+    <sheet name="Insert Fragment" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="73">
   <si>
     <t>Source node type</t>
   </si>
@@ -87,12 +88,6 @@
     <t>TargetNode</t>
   </si>
   <si>
-    <t>Error</t>
-  </si>
-  <si>
-    <t>Warning</t>
-  </si>
-  <si>
     <t>node</t>
   </si>
   <si>
@@ -148,13 +143,109 @@
   </si>
   <si>
     <t>otherwise</t>
+  </si>
+  <si>
+    <t>ResultBean</t>
+  </si>
+  <si>
+    <t>ELM</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>XML ELM</t>
+  </si>
+  <si>
+    <t>XML ATTR</t>
+  </si>
+  <si>
+    <t>XML Text</t>
+  </si>
+  <si>
+    <t>copy-of</t>
+  </si>
+  <si>
+    <t>value-of</t>
+  </si>
+  <si>
+    <t>for-each</t>
+  </si>
+  <si>
+    <t>if</t>
+  </si>
+  <si>
+    <t>choose</t>
+  </si>
+  <si>
+    <t>XSL:when</t>
+  </si>
+  <si>
+    <t>XSL:attribute</t>
+  </si>
+  <si>
+    <t>XSL: list#1 elements</t>
+  </si>
+  <si>
+    <t>XSL: List #1</t>
+  </si>
+  <si>
+    <t>insertXMLFrag(node)</t>
+  </si>
+  <si>
+    <t>insertAttrFrag(node)</t>
+  </si>
+  <si>
+    <t>insertTextFrag(node)</t>
+  </si>
+  <si>
+    <t>insertAttributeFrag(node)</t>
+  </si>
+  <si>
+    <t>insertWhenFrag(node)</t>
+  </si>
+  <si>
+    <t>insertXXXXXFrag(node)</t>
+  </si>
+  <si>
+    <t>!choose</t>
+  </si>
+  <si>
+    <t>ERROR</t>
+  </si>
+  <si>
+    <t>not ELM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LeftNode </t>
+  </si>
+  <si>
+    <t>RightNode</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>Facts</t>
+  </si>
+  <si>
+    <t>target</t>
+  </si>
+  <si>
+    <t>results</t>
+  </si>
+  <si>
+    <t>insert***()</t>
+  </si>
+  <si>
+    <t>R-node</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -208,6 +299,13 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -238,7 +336,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -332,6 +430,43 @@
     </border>
     <border>
       <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -349,7 +484,7 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -416,6 +551,41 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="10" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -725,23 +895,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:D5"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.28515625" style="4" customWidth="1"/>
-    <col min="2" max="4" width="19.7109375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="27.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="29.28515625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="8.85546875" style="4" customWidth="1"/>
-    <col min="8" max="16384" width="8.85546875" style="4"/>
+    <col min="1" max="1" width="24.33203125" style="4" customWidth="1"/>
+    <col min="2" max="4" width="19.6640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="27.109375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="29.33203125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" style="4" customWidth="1"/>
+    <col min="8" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -752,10 +922,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
         <v>5</v>
       </c>
@@ -766,7 +936,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>7</v>
@@ -775,7 +945,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="21" t="s">
         <v>5</v>
       </c>
@@ -786,13 +956,13 @@
         <v>6</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="21" t="s">
         <v>5</v>
       </c>
@@ -803,13 +973,13 @@
         <v>4</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="21" t="s">
         <v>5</v>
       </c>
@@ -820,13 +990,13 @@
         <v>3</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
@@ -837,13 +1007,13 @@
         <v>11</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>5</v>
       </c>
@@ -854,13 +1024,13 @@
         <v>15</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>5</v>
       </c>
@@ -871,13 +1041,13 @@
         <v>16</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>5</v>
       </c>
@@ -885,16 +1055,16 @@
         <v>17</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>5</v>
       </c>
@@ -902,16 +1072,16 @@
         <v>13</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>13</v>
       </c>
@@ -919,7 +1089,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="21" t="s">
         <v>14</v>
       </c>
@@ -930,7 +1100,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="21" t="s">
         <v>17</v>
       </c>
@@ -941,9 +1111,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="21" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
@@ -952,10 +1122,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="21"/>
       <c r="B15" s="21" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C15" s="21"/>
       <c r="D15" s="21"/>
@@ -963,114 +1133,419 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
       <c r="D21" s="11"/>
       <c r="E21" s="12"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="13" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C22" s="15"/>
       <c r="D22" s="15"/>
       <c r="E22" s="16"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="13" t="s">
         <v>21</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C23" s="15"/>
       <c r="D23" s="15"/>
       <c r="E23" s="16"/>
     </row>
-    <row r="24" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="13" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D24" s="14"/>
       <c r="E24" s="16"/>
     </row>
-    <row r="25" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25" s="18" t="s">
+    <row r="25" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D25" s="18"/>
-      <c r="E25" s="19"/>
-    </row>
-    <row r="26" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="10" t="s">
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="12"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="12"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B27" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" s="14"/>
+      <c r="E27" s="16"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="13" t="s">
         <v>33</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" s="14" t="s">
-        <v>34</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="C28" s="14"/>
       <c r="D28" s="14"/>
       <c r="E28" s="16"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="14" t="s">
+    <row r="29" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="16"/>
-    </row>
-    <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C30" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D30" s="18"/>
-      <c r="E30" s="20" t="s">
+      <c r="C29" s="18" t="s">
         <v>25</v>
+      </c>
+      <c r="D29" s="18"/>
+      <c r="E29" s="20" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="28.33203125" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="3" max="3" width="15.77734375" customWidth="1"/>
+    <col min="4" max="4" width="14.21875" customWidth="1"/>
+    <col min="5" max="5" width="31.5546875" customWidth="1"/>
+    <col min="6" max="6" width="41.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+    </row>
+    <row r="2" spans="1:6" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="27" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="27" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="27" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="27" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="27" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="32" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="32" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D10" s="31"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="26"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="3"/>
+    </row>
+    <row r="22" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="3"/>
+    </row>
+    <row r="24" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="34" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="34" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="34" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="34" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="35" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>